--- a/V1/Dataset/GECCO21.xlsx
+++ b/V1/Dataset/GECCO21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\Solver\Solver\Solver_versions\CSP_Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691E205-3B7A-4275-9633-D294769808D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637682C8-CE45-4FA8-8D8A-886DCD8ED238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1429,9 +1429,6 @@
   </si>
   <si>
     <t>Speakers</t>
-  </si>
-  <si>
-    <t>Organizers</t>
   </si>
   <si>
     <t>Attendees</t>
@@ -3027,6 +3024,9 @@
   </si>
   <si>
     <t>Best ACOSI</t>
+  </si>
+  <si>
+    <t>Organisers</t>
   </si>
 </sst>
 </file>
@@ -3744,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="49"/>
       <c r="C93" s="49"/>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="49"/>
       <c r="C104" s="49"/>
@@ -4673,28 +4673,28 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -4704,32 +4704,32 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4777,63 +4777,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="N1" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>398</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="28"/>
       <c r="N2" s="1"/>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" s="28"/>
       <c r="N3" s="1"/>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="28"/>
       <c r="N4" s="1"/>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4920,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="28"/>
       <c r="N5" s="1"/>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="1"/>
       <c r="N6" s="1"/>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" s="28"/>
       <c r="N7" s="1"/>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4998,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" s="28"/>
       <c r="N8" s="1"/>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -5024,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="28"/>
       <c r="N9" s="1"/>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -5050,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="1"/>
       <c r="N10" s="1"/>
@@ -5064,10 +5064,10 @@
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="28"/>
       <c r="N11" s="1"/>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -5102,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="1"/>
       <c r="N12" s="1"/>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" s="28"/>
       <c r="N13" s="1"/>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5154,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G14" s="1"/>
       <c r="N14" s="1"/>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5180,10 +5180,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="28"/>
       <c r="N15" s="1"/>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="1"/>
       <c r="N16" s="1"/>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" s="28"/>
       <c r="N17" s="1"/>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -5258,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G18" s="1"/>
       <c r="N18" s="1"/>
@@ -5272,11 +5272,11 @@
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -5284,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="1"/>
       <c r="N19" s="1"/>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5309,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" s="1"/>
       <c r="N20" s="1"/>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -5334,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G21" s="28"/>
       <c r="N21" s="1"/>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G22" s="28"/>
       <c r="N22" s="1"/>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -5384,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G23" s="28"/>
       <c r="N23" s="1"/>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" s="28"/>
       <c r="N24" s="1"/>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" s="28"/>
       <c r="N25" s="1"/>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G26" s="28"/>
       <c r="N26" s="1"/>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -5484,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G27" s="28"/>
       <c r="N27" s="1"/>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -5509,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G28" s="28"/>
       <c r="N28" s="1"/>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -5534,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G29" s="28"/>
       <c r="N29" s="1"/>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30" s="28"/>
       <c r="N30" s="1"/>
@@ -5572,10 +5572,10 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G31" s="28"/>
       <c r="N31" s="1"/>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5609,10 +5609,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G32" s="28"/>
       <c r="N32" s="1"/>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -5634,10 +5634,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G33" s="28"/>
       <c r="N33" s="1"/>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -5659,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G34" s="28"/>
       <c r="N34" s="1"/>
@@ -5672,10 +5672,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="28"/>
       <c r="N35" s="1"/>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5709,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G36" s="28"/>
       <c r="N36" s="1"/>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5734,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G37" s="28"/>
       <c r="N37" s="1"/>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -5759,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G38" s="1"/>
       <c r="N38" s="1"/>
@@ -5772,10 +5772,10 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -5784,20 +5784,20 @@
         <v>0</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G39" s="28"/>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -5806,20 +5806,20 @@
         <v>0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G40" s="28"/>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -5828,20 +5828,20 @@
         <v>0</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G41" s="28"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -5850,20 +5850,20 @@
         <v>0</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" s="28"/>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -5872,20 +5872,20 @@
         <v>0</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G43" s="28"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -5894,20 +5894,20 @@
         <v>0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G44" s="28"/>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -5916,20 +5916,20 @@
         <v>0</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G45" s="28"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -5938,20 +5938,20 @@
         <v>0</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="28"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -5960,20 +5960,20 @@
         <v>0</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" s="28"/>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -5982,20 +5982,20 @@
         <v>0</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G48" s="28"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -6004,20 +6004,20 @@
         <v>3</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G49" s="28"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -6026,20 +6026,20 @@
         <v>1</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G50" s="28"/>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -6048,20 +6048,20 @@
         <v>4</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G51" s="28"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -6070,20 +6070,20 @@
         <v>0</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G52" s="28"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -6092,20 +6092,20 @@
         <v>0</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G53" s="28"/>
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -6114,20 +6114,20 @@
         <v>0</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G54" s="28"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -6136,20 +6136,20 @@
         <v>0</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="28"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -6158,20 +6158,20 @@
         <v>0</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G56" s="28"/>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -6180,20 +6180,20 @@
         <v>0</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G57" s="28"/>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -6202,20 +6202,20 @@
         <v>4</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G58" s="28"/>
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -6224,20 +6224,20 @@
         <v>1</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G59" s="28"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -6246,20 +6246,20 @@
         <v>0</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G60" s="28"/>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -6268,20 +6268,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G61" s="28"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -6290,20 +6290,20 @@
         <v>0</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G62" s="28"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -6312,20 +6312,20 @@
         <v>0</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G63" s="28"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -6334,20 +6334,20 @@
         <v>0</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64" s="28"/>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -6356,20 +6356,20 @@
         <v>0</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G65" s="28"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -6378,20 +6378,20 @@
         <v>0</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G66" s="28"/>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -6400,20 +6400,20 @@
         <v>0</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G67" s="28"/>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -6422,20 +6422,20 @@
         <v>0</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G68" s="28"/>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -6444,20 +6444,20 @@
         <v>0</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G69" s="28"/>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -6466,20 +6466,20 @@
         <v>0</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G70" s="28"/>
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -6488,20 +6488,20 @@
         <v>0</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G71" s="28"/>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -6510,20 +6510,20 @@
         <v>0</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G72" s="28"/>
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -6532,20 +6532,20 @@
         <v>0</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" s="28"/>
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -6554,20 +6554,20 @@
         <v>0</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G74" s="28"/>
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -6576,20 +6576,20 @@
         <v>0</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G75" s="28"/>
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -6598,20 +6598,20 @@
         <v>0</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="28"/>
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -6620,20 +6620,20 @@
         <v>0</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="28"/>
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -6642,20 +6642,20 @@
         <v>0</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G78" s="28"/>
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -6664,20 +6664,20 @@
         <v>0</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G79" s="28"/>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -6686,20 +6686,20 @@
         <v>0</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G80" s="28"/>
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -6708,20 +6708,20 @@
         <v>0</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G81" s="28"/>
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -6730,20 +6730,20 @@
         <v>0</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G82" s="28"/>
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -6752,20 +6752,20 @@
         <v>0</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G83" s="28"/>
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -6774,20 +6774,20 @@
         <v>0</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G84" s="28"/>
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -6796,20 +6796,20 @@
         <v>0</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G85" s="28"/>
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -6818,20 +6818,20 @@
         <v>0</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G86" s="28"/>
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -6840,20 +6840,20 @@
         <v>0</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G87" s="28"/>
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -6862,20 +6862,20 @@
         <v>0</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G88" s="28"/>
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -6884,20 +6884,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G89" s="28"/>
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -6906,20 +6906,20 @@
         <v>0</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G90" s="28"/>
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -6928,20 +6928,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G91" s="28"/>
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -6950,20 +6950,20 @@
         <v>0</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G92" s="28"/>
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -6972,20 +6972,20 @@
         <v>0</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G93" s="28"/>
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -6994,20 +6994,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G94" s="28"/>
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -7016,20 +7016,20 @@
         <v>0</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95" s="28"/>
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -7038,20 +7038,20 @@
         <v>0</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96" s="28"/>
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -7060,20 +7060,20 @@
         <v>0</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97" s="28"/>
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -7082,20 +7082,20 @@
         <v>0</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G98" s="28"/>
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -7104,20 +7104,20 @@
         <v>0</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99" s="28"/>
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -7126,20 +7126,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G100" s="28"/>
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -7148,20 +7148,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G101" s="28"/>
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -7170,20 +7170,20 @@
         <v>0</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102" s="28"/>
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -7192,20 +7192,20 @@
         <v>0</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103" s="28"/>
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -7214,20 +7214,20 @@
         <v>2</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104" s="28"/>
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -7236,20 +7236,20 @@
         <v>0</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G105" s="28"/>
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -7258,20 +7258,20 @@
         <v>0</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106" s="28"/>
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -7280,20 +7280,20 @@
         <v>0</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G107" s="28"/>
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -7302,20 +7302,20 @@
         <v>0</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G108" s="28"/>
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -7324,20 +7324,20 @@
         <v>0</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G109" s="28"/>
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -7346,20 +7346,20 @@
         <v>0</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G110" s="28"/>
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -7368,20 +7368,20 @@
         <v>0</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G111" s="28"/>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -7390,20 +7390,20 @@
         <v>0</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G112" s="28"/>
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -7412,20 +7412,20 @@
         <v>0</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G113" s="28"/>
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -7434,20 +7434,20 @@
         <v>0</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G114" s="28"/>
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -7456,20 +7456,20 @@
         <v>0</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G115" s="28"/>
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -7478,20 +7478,20 @@
         <v>0</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F116" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G116" s="28"/>
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -7500,20 +7500,20 @@
         <v>0</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G117" s="28"/>
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -7522,20 +7522,20 @@
         <v>0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G118" s="28"/>
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -7544,20 +7544,20 @@
         <v>0</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G119" s="28"/>
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -7566,20 +7566,20 @@
         <v>0</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G120" s="28"/>
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -7588,20 +7588,20 @@
         <v>0</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G121" s="28"/>
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -7610,20 +7610,20 @@
         <v>0</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G122" s="28"/>
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -7632,20 +7632,20 @@
         <v>0</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G123" s="28"/>
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -7654,20 +7654,20 @@
         <v>0</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G124" s="28"/>
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -7676,20 +7676,20 @@
         <v>0</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G125" s="28"/>
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -7698,20 +7698,20 @@
         <v>0</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G126" s="28"/>
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -7720,20 +7720,20 @@
         <v>0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G127" s="28"/>
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -7742,20 +7742,20 @@
         <v>0</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G128" s="28"/>
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -7764,20 +7764,20 @@
         <v>0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G129" s="28"/>
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G130" s="28"/>
       <c r="I130" s="9"/>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -7809,20 +7809,20 @@
         <v>0</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G131" s="28"/>
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -7831,20 +7831,20 @@
         <v>0</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G132" s="28"/>
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -7853,20 +7853,20 @@
         <v>0</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G133" s="28"/>
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -7875,19 +7875,19 @@
         <v>0</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -7896,19 +7896,19 @@
         <v>0</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -7917,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G136" s="1"/>
       <c r="I136" s="1">
@@ -7941,10 +7941,10 @@
     </row>
     <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -7953,10 +7953,10 @@
         <v>0</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1">
@@ -7977,10 +7977,10 @@
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -7989,19 +7989,19 @@
         <v>0</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -8010,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G139" s="1"/>
       <c r="I139" s="1">
@@ -8500,7 +8500,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8519,12 +8519,12 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -8808,8 +8808,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8827,13 +8827,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -9041,42 +9041,42 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9118,7 +9118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90269948-ABA3-428F-B253-D01E7BBF500F}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -9136,7 +9136,7 @@
       <c r="B1" s="19"/>
       <c r="C1" s="2"/>
       <c r="D1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="2"/>
@@ -9157,13 +9157,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="24">
         <v>100</v>
@@ -9171,11 +9171,11 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="21"/>
       <c r="D3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="24">
         <v>1</v>
@@ -9183,13 +9183,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="25">
         <v>0.39583333333333331</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="24">
         <v>0</v>
@@ -9197,13 +9197,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="25">
         <v>0.89583333333333337</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="24">
         <v>1000</v>
@@ -9211,13 +9211,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="24">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="24">
         <v>500</v>
@@ -9225,11 +9225,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="21"/>
       <c r="D7" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="24">
         <v>750</v>
@@ -9237,13 +9237,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="25">
         <v>0.29166666666666669</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="24">
         <v>10</v>
@@ -9251,13 +9251,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="25">
         <v>0.95833333333333337</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
@@ -9265,13 +9265,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="24">
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="24">
         <v>100</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="24">
         <v>0</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="24">
         <v>1000</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="24">
         <v>10000000</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="24">
         <v>10000000</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="24">
         <v>10000000</v>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="24">
         <v>0</v>
@@ -9359,115 +9359,115 @@
     <row r="1" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -9479,7 +9479,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1">
         <v>10000</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1">
         <v>10000</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1">
         <v>10000</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1">
         <v>10000</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="1">
         <v>10000</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="1">
         <v>10000</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1">
         <v>10000</v>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="1">
         <v>10000</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1">
         <v>10000</v>
@@ -9578,7 +9578,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="1">
         <v>10000</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1">
         <v>10000</v>
@@ -9609,12 +9609,12 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1">
         <v>10000</v>
@@ -9658,28 +9658,28 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -9691,72 +9691,72 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -9802,7 +9802,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -9894,7 +9894,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -9986,7 +9986,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -10009,17 +10009,17 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -10049,90 +10049,90 @@
     <row r="1" spans="1:28" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="8"/>
       <c r="O2" s="1">
@@ -10141,7 +10141,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -10162,7 +10162,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -10264,7 +10264,7 @@
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -10321,7 +10321,7 @@
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -10340,7 +10340,7 @@
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -10426,7 +10426,7 @@
     </row>
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>

--- a/V1/Dataset/GECCO21.xlsx
+++ b/V1/Dataset/GECCO21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE76383-0EED-4ECE-B984-3281BCB1085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16189490-3618-493E-A73D-30F49E7F455B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="727">
   <si>
     <t>Sessions</t>
   </si>
@@ -2989,9 +2989,6 @@
     <t>Geoff Nitschke</t>
   </si>
   <si>
-    <t>Geoff Nitschke, Christopher Mailer, Leanne Raw</t>
-  </si>
-  <si>
     <t>Jason Liang</t>
   </si>
   <si>
@@ -3013,12 +3010,6 @@
     <t>Alden Wright</t>
   </si>
   <si>
-    <t>Alexandru Ianta, Robert Smith, Malcolm Heywood</t>
-  </si>
-  <si>
-    <t>Enna Sachdeva, Shauharda Khadka, Somdeb Majumdar, Kagan Tumer</t>
-  </si>
-  <si>
     <t>Santiago Gonzalez</t>
   </si>
   <si>
@@ -3028,45 +3019,21 @@
     <t>Thomas Helmuth</t>
   </si>
   <si>
-    <t>Shabnam Nazmi, Abdollah Homaifar, Mohd Anwar</t>
-  </si>
-  <si>
     <t>Julian Blank</t>
   </si>
   <si>
     <t>Erik Hemberg</t>
   </si>
   <si>
-    <t>Souvik Das, Anirudh Shankar, Vaneet Aggarwal</t>
-  </si>
-  <si>
-    <t>Dena Mujtaba, Nihar Mahapatra</t>
-  </si>
-  <si>
     <t>Muhilan Ramamoorthy</t>
   </si>
   <si>
     <t>Marcus Ritt</t>
   </si>
   <si>
-    <t>Renato Tinos, Darrell Whitley, Francisco Chicano, Gabriela Ochoa</t>
-  </si>
-  <si>
     <t>Fabricio de Franca</t>
   </si>
   <si>
-    <t>Matheus Nunes, Gisele Pappa</t>
-  </si>
-  <si>
-    <t>Yang Qing, Yu Zhou</t>
-  </si>
-  <si>
-    <t>Nilotpal Sinha, Kuan Wen Chen</t>
-  </si>
-  <si>
-    <t>Anirban Mukhopadhyay, Darrell Whitley</t>
-  </si>
-  <si>
     <t>Xinhua Yang</t>
   </si>
   <si>
@@ -3082,9 +3049,6 @@
     <t>Weijie Zheng</t>
   </si>
   <si>
-    <t>Zeyuan Ma, Yue Jiao Gong</t>
-  </si>
-  <si>
     <t>Kaiou Yin</t>
   </si>
   <si>
@@ -3100,9 +3064,6 @@
     <t>Youhei Akimoto</t>
   </si>
   <si>
-    <t>Tae Jong Choi, Julian Togelius</t>
-  </si>
-  <si>
     <t>Ryoji Tanabe</t>
   </si>
   <si>
@@ -3112,30 +3073,15 @@
     <t>Tomohiro Harada</t>
   </si>
   <si>
-    <t>Jason Orlosky, Tim Grabowski</t>
-  </si>
-  <si>
     <t>Myoung Hoon Ha</t>
   </si>
   <si>
     <t>Daiki Morinaga</t>
   </si>
   <si>
-    <t>Adel Nikfarjam, Jakob Bossek, Aneta Neumann, Frank Neumann</t>
-  </si>
-  <si>
     <t>Frank Neumann</t>
   </si>
   <si>
-    <t>Aneta Neumann, Jakob Bossek, Frank Neumann</t>
-  </si>
-  <si>
-    <t>Yue Xie, Aneta Neumann, Frank Neumann</t>
-  </si>
-  <si>
-    <t>Yue Xie, Aneta Neumann, Frank Neumann, Andrew Sutton</t>
-  </si>
-  <si>
     <t>Seth Fitzgerald</t>
   </si>
   <si>
@@ -3148,21 +3094,9 @@
     <t>Manou Rosenberg</t>
   </si>
   <si>
-    <t>Jakob Bossek, Aneta Neumann, Frank Neumann</t>
-  </si>
-  <si>
-    <t>Jakob Bossek, Frank Neumann</t>
-  </si>
-  <si>
     <t>Tomasz Kulpa</t>
   </si>
   <si>
-    <t>Adrian Worring, Benjamin Mayer, Kay Hamacher</t>
-  </si>
-  <si>
-    <t>Arnaud Liefooghe, Sebastien Verel, Benjamin Lacroix, Alexandru Ciprian, John McCall</t>
-  </si>
-  <si>
     <t>Patrick Spettel</t>
   </si>
   <si>
@@ -3172,30 +3106,18 @@
     <t>Dominik Sobania</t>
   </si>
   <si>
-    <t>Maximilian Bother, Leon Schiller, Philipp Fischbeck, Louise Molitor, Martin Krejca, Tobias Friedrich</t>
-  </si>
-  <si>
     <t>Krzysztof Michalak</t>
   </si>
   <si>
     <t>Tanja Tornede</t>
   </si>
   <si>
-    <t>Domagoj Jakobovic, Stjepan Picek</t>
-  </si>
-  <si>
-    <t>Tome Eftimov, Anja Jankovic, Gorjan Popovski, Carola Doerr, Peter Korosec</t>
-  </si>
-  <si>
     <t>Luca Mariot</t>
   </si>
   <si>
     <t>Igor Vatolkin</t>
   </si>
   <si>
-    <t>Wolfgang Weintritt, Felix Winter</t>
-  </si>
-  <si>
     <t>Nils Weidmann</t>
   </si>
   <si>
@@ -3205,39 +3127,18 @@
     <t>Calum Imrie</t>
   </si>
   <si>
-    <t>Mariana Macedo, Ronaldo Menezes</t>
-  </si>
-  <si>
     <t>Giuseppe Paolo</t>
   </si>
   <si>
-    <t>Olle Nilsson, Antoine Cully</t>
-  </si>
-  <si>
     <t>Mario Hevia Fajardo</t>
   </si>
   <si>
     <t>Antoine Cully</t>
   </si>
   <si>
-    <t>Lara Dal Molin, Christopher Stone</t>
-  </si>
-  <si>
     <t>Leo Cazenille</t>
   </si>
   <si>
-    <t>Alexandre Jesus, Luis Paquete, Bilel Derbel, Arnaud Liefooghe</t>
-  </si>
-  <si>
-    <t>Yingfang Yuan, Wei Pang</t>
-  </si>
-  <si>
-    <t>Seyed Shavarani, Manuel Lopez Ibanez</t>
-  </si>
-  <si>
-    <t>Francisco Baeta, Joao Correia, Tiago Martins, Penousal Machado</t>
-  </si>
-  <si>
     <t>Joachim Pedersen</t>
   </si>
   <si>
@@ -3253,12 +3154,6 @@
     <t>Cyrille Merleau Nono Saha</t>
   </si>
   <si>
-    <t>Duc Cuong Dang, Anton Eremeev, Per Lehre</t>
-  </si>
-  <si>
-    <t>Per Lehre, Xiaoyu Qin</t>
-  </si>
-  <si>
     <t>Judhi Prasetyo</t>
   </si>
   <si>
@@ -3268,24 +3163,15 @@
     <t>Alexandros Doumanoglou</t>
   </si>
   <si>
-    <t>Amit Mandelbaum, Doron Haritan</t>
-  </si>
-  <si>
     <t>Masood Jabarnejad</t>
   </si>
   <si>
-    <t>Denis Antipov, Benjamin Doerr</t>
-  </si>
-  <si>
     <t>Benjamin Doerr</t>
   </si>
   <si>
     <t>Federico Pigozzi</t>
   </si>
   <si>
-    <t>Bilel Derbel, Lorenzo Canonne</t>
-  </si>
-  <si>
     <t>Arkadiy Dushatskiy</t>
   </si>
   <si>
@@ -3295,12 +3181,6 @@
     <t>Giovanni Iacca</t>
   </si>
   <si>
-    <t>Antonios Liapis, Georgios Yannakakis</t>
-  </si>
-  <si>
-    <t>Achkan Salehi, Alexandre Coninx, Stephane Doncieux</t>
-  </si>
-  <si>
     <t>Francisco Chicano</t>
   </si>
   <si>
@@ -3316,9 +3196,6 @@
     <t>Marco Zanella</t>
   </si>
   <si>
-    <t>Jamal Toutouh, Una May OReily</t>
-  </si>
-  <si>
     <t>Andrzej Jaszkiewicz</t>
   </si>
   <si>
@@ -3340,9 +3217,6 @@
     <t>Michal Przewozniczek</t>
   </si>
   <si>
-    <t>Anja Jankovic, Tome Eftimov, Carola Doerr</t>
-  </si>
-  <si>
     <t>Nicolas Szczepanski</t>
   </si>
   <si>
@@ -3352,27 +3226,12 @@
     <t>Marco Virgolin</t>
   </si>
   <si>
-    <t>Paul Templier, Dennis Wilson</t>
-  </si>
-  <si>
     <t>Alejandro Lopez Rincon</t>
   </si>
   <si>
     <t>Uwe Bauknecht</t>
   </si>
   <si>
-    <t>Sebastian Vogl, Sebastian Schweikl, Gordon Fraser</t>
-  </si>
-  <si>
-    <t>Amirhossein Rajabi, Carsten Witt</t>
-  </si>
-  <si>
-    <t>Shaolin Wang, Yi Mei</t>
-  </si>
-  <si>
-    <t>Wenbin Pei, Bing Xue, Mengjie Zhang</t>
-  </si>
-  <si>
     <t>Mazhar Ansari Ardeh</t>
   </si>
   <si>
@@ -3422,6 +3281,1065 @@
   </si>
   <si>
     <t>Room8</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Christopher Mailer</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Leanne Raw</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Alexandru Ianta</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Robert Smith</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Malcolm Heywood</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>Enna Sachdeva</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>Shauharda Khadka</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>Somdeb Majumdar</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>Kagan Tumer</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Shabnam Nazmi</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>Abdollah Homaifar</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>Mohd Anwar</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>Souvik Das</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>Anirudh Shankar</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>Vaneet Aggarwal</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>Dena Mujtaba</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>Nihar Mahapatra</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>Renato Tinos</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>Gabriela Ochoa</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>Matheus Nunes</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>Gisele Pappa</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>Yang Qing</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>Yu Zhou</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>Nilotpal Sinha</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>Kuan Wen Chen</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>Anirban Mukhopadhyay</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>Zeyuan Ma</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>Yue Jiao Gong</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>Tae Jong Choi</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>Julian Togelius</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>Jason Orlosky</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>Tim Grabowski</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>Adel Nikfarjam</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>Jakob Bossek</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>Aneta Neumann</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>Yue Xie</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>Andrew Sutton</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>Adrian Worring</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>Benjamin Mayer</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>Kay Hamacher</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>Arnaud Liefooghe</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>Sebastien Verel</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>Benjamin Lacroix</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>Alexandru Ciprian</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>John McCall</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>Maximilian Bother</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>Leon Schiller</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>Philipp Fischbeck</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>Louise Molitor</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>Martin Krejca</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>Tobias Friedrich</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>Domagoj Jakobovic</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>Stjepan Picek</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>Tome Eftimov</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>Anja Jankovic</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>Gorjan Popovski</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>Carola Doerr</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>Peter Korosec</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>Wolfgang Weintritt</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>Felix Winter</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>Mariana Macedo</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>Ronaldo Menezes</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>Olle Nilsson</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>Lara Dal Molin</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>Christopher Stone</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>Alexandre Jesus</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>Luis Paquete</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>Bilel Derbel</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>Yingfang Yuan</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>Wei Pang</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>Seyed Shavarani</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>Manuel Lopez Ibanez</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>Francisco Baeta</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>Joao Correia</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>Tiago Martins</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>Penousal Machado</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>Duc Cuong Dang</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>Anton Eremeev</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>Per Lehre</t>
+  </si>
+  <si>
+    <t>P136</t>
+  </si>
+  <si>
+    <t>Xiaoyu Qin</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>P139</t>
+  </si>
+  <si>
+    <t>P140</t>
+  </si>
+  <si>
+    <t>Amit Mandelbaum</t>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>Doron Haritan</t>
+  </si>
+  <si>
+    <t>P142</t>
+  </si>
+  <si>
+    <t>P143</t>
+  </si>
+  <si>
+    <t>Denis Antipov</t>
+  </si>
+  <si>
+    <t>P144</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>Lorenzo Canonne</t>
+  </si>
+  <si>
+    <t>P147</t>
+  </si>
+  <si>
+    <t>P148</t>
+  </si>
+  <si>
+    <t>P149</t>
+  </si>
+  <si>
+    <t>P150</t>
+  </si>
+  <si>
+    <t>Antonios Liapis</t>
+  </si>
+  <si>
+    <t>P151</t>
+  </si>
+  <si>
+    <t>Georgios Yannakakis</t>
+  </si>
+  <si>
+    <t>P152</t>
+  </si>
+  <si>
+    <t>Achkan Salehi</t>
+  </si>
+  <si>
+    <t>P153</t>
+  </si>
+  <si>
+    <t>Alexandre Coninx</t>
+  </si>
+  <si>
+    <t>P154</t>
+  </si>
+  <si>
+    <t>Stephane Doncieux</t>
+  </si>
+  <si>
+    <t>P155</t>
+  </si>
+  <si>
+    <t>P156</t>
+  </si>
+  <si>
+    <t>P157</t>
+  </si>
+  <si>
+    <t>P158</t>
+  </si>
+  <si>
+    <t>P159</t>
+  </si>
+  <si>
+    <t>Jamal Toutouh</t>
+  </si>
+  <si>
+    <t>P160</t>
+  </si>
+  <si>
+    <t>Una May OReily</t>
+  </si>
+  <si>
+    <t>P161</t>
+  </si>
+  <si>
+    <t>P162</t>
+  </si>
+  <si>
+    <t>P163</t>
+  </si>
+  <si>
+    <t>P164</t>
+  </si>
+  <si>
+    <t>P165</t>
+  </si>
+  <si>
+    <t>P166</t>
+  </si>
+  <si>
+    <t>P167</t>
+  </si>
+  <si>
+    <t>P168</t>
+  </si>
+  <si>
+    <t>P169</t>
+  </si>
+  <si>
+    <t>P170</t>
+  </si>
+  <si>
+    <t>P171</t>
+  </si>
+  <si>
+    <t>Paul Templier</t>
+  </si>
+  <si>
+    <t>P172</t>
+  </si>
+  <si>
+    <t>Dennis Wilson</t>
+  </si>
+  <si>
+    <t>P173</t>
+  </si>
+  <si>
+    <t>P174</t>
+  </si>
+  <si>
+    <t>P175</t>
+  </si>
+  <si>
+    <t>Sebastian Vogl</t>
+  </si>
+  <si>
+    <t>P176</t>
+  </si>
+  <si>
+    <t>Sebastian Schweikl</t>
+  </si>
+  <si>
+    <t>P177</t>
+  </si>
+  <si>
+    <t>Gordon Fraser</t>
+  </si>
+  <si>
+    <t>P178</t>
+  </si>
+  <si>
+    <t>Amirhossein Rajabi</t>
+  </si>
+  <si>
+    <t>P179</t>
+  </si>
+  <si>
+    <t>Carsten Witt</t>
+  </si>
+  <si>
+    <t>P180</t>
+  </si>
+  <si>
+    <t>Shaolin Wang</t>
+  </si>
+  <si>
+    <t>P181</t>
+  </si>
+  <si>
+    <t>Yi Mei</t>
+  </si>
+  <si>
+    <t>P182</t>
+  </si>
+  <si>
+    <t>Wenbin Pei</t>
+  </si>
+  <si>
+    <t>P183</t>
+  </si>
+  <si>
+    <t>Bing Xue</t>
+  </si>
+  <si>
+    <t>P184</t>
+  </si>
+  <si>
+    <t>Mengjie Zhang</t>
+  </si>
+  <si>
+    <t>P185</t>
+  </si>
+  <si>
+    <t>P186</t>
+  </si>
+  <si>
+    <t>P187</t>
+  </si>
+  <si>
+    <t>P188</t>
+  </si>
+  <si>
+    <t>P189</t>
+  </si>
+  <si>
+    <t>GMT+2</t>
+  </si>
+  <si>
+    <t>GMT-8</t>
+  </si>
+  <si>
+    <t>GMT-5</t>
+  </si>
+  <si>
+    <t>GMT-6</t>
+  </si>
+  <si>
+    <t>GMT-3</t>
+  </si>
+  <si>
+    <t>GMT-7</t>
+  </si>
+  <si>
+    <t>GMT-4</t>
+  </si>
+  <si>
+    <t>GMT+8</t>
+  </si>
+  <si>
+    <t>GMT+6</t>
+  </si>
+  <si>
+    <t>GMT+9</t>
+  </si>
+  <si>
+    <t>GMT+10</t>
+  </si>
+  <si>
+    <t>GMT+1</t>
+  </si>
+  <si>
+    <t>GMT+12</t>
+  </si>
+  <si>
+    <t>P0, P1, P2</t>
+  </si>
+  <si>
+    <t>P10, P11, P12</t>
+  </si>
+  <si>
+    <t>P13, P14, P15, P16</t>
+  </si>
+  <si>
+    <t>P20, P21, P22</t>
+  </si>
+  <si>
+    <t>P25, P26, P27</t>
+  </si>
+  <si>
+    <t>P28, P29</t>
+  </si>
+  <si>
+    <t>P32, P7, P33, P34</t>
+  </si>
+  <si>
+    <t>P36, P37</t>
+  </si>
+  <si>
+    <t>P38, P39</t>
+  </si>
+  <si>
+    <t>P40, P41</t>
+  </si>
+  <si>
+    <t>P42, P7</t>
+  </si>
+  <si>
+    <t>P48, P49</t>
+  </si>
+  <si>
+    <t>P55, P56</t>
+  </si>
+  <si>
+    <t>P60, P61</t>
+  </si>
+  <si>
+    <t>P64, P65, P66, P67</t>
+  </si>
+  <si>
+    <t>P66, P65, P67</t>
+  </si>
+  <si>
+    <t>P68, P66, P67</t>
+  </si>
+  <si>
+    <t>P68, P66, P67, P69</t>
+  </si>
+  <si>
+    <t>P65, P66, P67</t>
+  </si>
+  <si>
+    <t>P65, P67</t>
+  </si>
+  <si>
+    <t>P75, P76, P77</t>
+  </si>
+  <si>
+    <t>P78, P79, P80, P81, P82</t>
+  </si>
+  <si>
+    <t>P86, P87, P88, P89, P90, P91</t>
+  </si>
+  <si>
+    <t>P94, P95</t>
+  </si>
+  <si>
+    <t>P96, P97, P98, P99, P100</t>
+  </si>
+  <si>
+    <t>P103, P104</t>
+  </si>
+  <si>
+    <t>P108, P109</t>
+  </si>
+  <si>
+    <t>P111, P112</t>
+  </si>
+  <si>
+    <t>P114, P115</t>
+  </si>
+  <si>
+    <t>P117, P118, P119, P78</t>
+  </si>
+  <si>
+    <t>P120, P121</t>
+  </si>
+  <si>
+    <t>P122, P123</t>
+  </si>
+  <si>
+    <t>P124, P125, P126, P127</t>
+  </si>
+  <si>
+    <t>P133, P134, P135</t>
+  </si>
+  <si>
+    <t>P135, P136</t>
+  </si>
+  <si>
+    <t>P140, P141</t>
+  </si>
+  <si>
+    <t>P143, P144</t>
+  </si>
+  <si>
+    <t>P119, P146</t>
+  </si>
+  <si>
+    <t>P150, P151</t>
+  </si>
+  <si>
+    <t>P152, P153, P154</t>
+  </si>
+  <si>
+    <t>P159, P160</t>
+  </si>
+  <si>
+    <t>P97, P96, P99</t>
+  </si>
+  <si>
+    <t>P171, P172</t>
+  </si>
+  <si>
+    <t>P175, P176, P177</t>
+  </si>
+  <si>
+    <t>P178, P179</t>
+  </si>
+  <si>
+    <t>P180, P181</t>
+  </si>
+  <si>
+    <t>P182, P183, P184</t>
   </si>
 </sst>
 </file>
@@ -3738,17 +4656,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3759,6 +4672,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3767,12 +4686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3786,10 +4699,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3806,9 +4731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3831,21 +4753,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4141,444 +5059,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="62"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -4587,427 +5505,439 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="46"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="62"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="64"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="46"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="46"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="46"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="48"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="46"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="46"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="46"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="46"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="46"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="46"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="47"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="48"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="46"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="46"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="46"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="46"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="46"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="46"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -5024,27 +5954,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5710,7 +6628,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -5725,28 +6643,28 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5756,22 +6674,22 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6101,9 +7019,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6156,16 +7074,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>47</v>
@@ -6173,36 +7091,36 @@
       <c r="Q1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>417</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="X1" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>420</v>
+      <c r="R1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="1">
@@ -6222,8 +7140,8 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="63" t="s">
-        <v>275</v>
+      <c r="J2" s="29" t="s">
+        <v>374</v>
       </c>
       <c r="K2" s="9"/>
       <c r="R2" s="1"/>
@@ -6233,10 +7151,10 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="1">
@@ -6256,8 +7174,8 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="63" t="s">
-        <v>276</v>
+      <c r="J3" s="29" t="s">
+        <v>680</v>
       </c>
       <c r="K3" s="9"/>
       <c r="R3" s="1"/>
@@ -6267,10 +7185,10 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="1">
@@ -6290,8 +7208,8 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="63" t="s">
-        <v>277</v>
+      <c r="J4" s="29" t="s">
+        <v>379</v>
       </c>
       <c r="K4" s="9"/>
       <c r="R4" s="1"/>
@@ -6301,10 +7219,10 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="1">
@@ -6324,8 +7242,8 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="63" t="s">
-        <v>278</v>
+      <c r="J5" s="29" t="s">
+        <v>380</v>
       </c>
       <c r="K5" s="9"/>
       <c r="R5" s="1"/>
@@ -6335,10 +7253,10 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="1">
@@ -6358,8 +7276,8 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="63" t="s">
-        <v>279</v>
+      <c r="J6" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="K6" s="9"/>
       <c r="R6" s="1"/>
@@ -6369,10 +7287,10 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="1">
@@ -6392,8 +7310,8 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="63" t="s">
-        <v>280</v>
+      <c r="J7" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="K7" s="9"/>
       <c r="R7" s="1"/>
@@ -6403,10 +7321,10 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="1">
@@ -6426,8 +7344,8 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="63" t="s">
-        <v>281</v>
+      <c r="J8" s="29" t="s">
+        <v>383</v>
       </c>
       <c r="K8" s="9"/>
       <c r="R8" s="1"/>
@@ -6437,10 +7355,10 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="1">
@@ -6460,8 +7378,8 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="63" t="s">
-        <v>282</v>
+      <c r="J9" s="29" t="s">
+        <v>384</v>
       </c>
       <c r="K9" s="9"/>
       <c r="R9" s="1"/>
@@ -6471,10 +7389,10 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="1">
@@ -6494,8 +7412,8 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="63" t="s">
-        <v>283</v>
+      <c r="J10" s="29" t="s">
+        <v>385</v>
       </c>
       <c r="K10" s="9"/>
       <c r="R10" s="1"/>
@@ -6505,10 +7423,10 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="1">
@@ -6528,8 +7446,8 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="63" t="s">
-        <v>284</v>
+      <c r="J11" s="29" t="s">
+        <v>681</v>
       </c>
       <c r="K11" s="9"/>
       <c r="R11" s="1"/>
@@ -6539,10 +7457,10 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="1">
@@ -6562,8 +7480,8 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="63" t="s">
-        <v>285</v>
+      <c r="J12" s="29" t="s">
+        <v>682</v>
       </c>
       <c r="K12" s="9"/>
       <c r="R12" s="1"/>
@@ -6573,10 +7491,10 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="1">
@@ -6596,8 +7514,8 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="63" t="s">
-        <v>286</v>
+      <c r="J13" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="K13" s="9"/>
       <c r="R13" s="1"/>
@@ -6607,10 +7525,10 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="1">
@@ -6630,8 +7548,8 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="63" t="s">
-        <v>287</v>
+      <c r="J14" s="29" t="s">
+        <v>401</v>
       </c>
       <c r="K14" s="9"/>
       <c r="R14" s="1"/>
@@ -6641,10 +7559,10 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="28" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="1">
@@ -6664,8 +7582,8 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="63" t="s">
-        <v>288</v>
+      <c r="J15" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="K15" s="9"/>
       <c r="R15" s="1"/>
@@ -6675,10 +7593,10 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="1">
@@ -6698,8 +7616,8 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="63" t="s">
-        <v>289</v>
+      <c r="J16" s="29" t="s">
+        <v>683</v>
       </c>
       <c r="K16" s="9"/>
       <c r="R16" s="1"/>
@@ -6709,10 +7627,10 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="1">
@@ -6732,8 +7650,8 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="63" t="s">
-        <v>290</v>
+      <c r="J17" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="K17" s="9"/>
       <c r="R17" s="1"/>
@@ -6743,10 +7661,10 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C18" s="1">
@@ -6766,8 +7684,8 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="63" t="s">
-        <v>291</v>
+      <c r="J18" s="29" t="s">
+        <v>410</v>
       </c>
       <c r="K18" s="9"/>
       <c r="R18" s="1"/>
@@ -6777,10 +7695,10 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="1">
@@ -6800,8 +7718,8 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="63" t="s">
-        <v>292</v>
+      <c r="J19" s="29" t="s">
+        <v>684</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -6809,10 +7727,10 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="1">
@@ -6832,8 +7750,8 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="63" t="s">
-        <v>293</v>
+      <c r="J20" s="29" t="s">
+        <v>685</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -6841,10 +7759,10 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="1">
@@ -6864,8 +7782,8 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="63" t="s">
-        <v>294</v>
+      <c r="J21" s="29" t="s">
+        <v>421</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -6873,10 +7791,10 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="1">
@@ -6896,8 +7814,8 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="63" t="s">
-        <v>295</v>
+      <c r="J22" s="29" t="s">
+        <v>422</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -6905,10 +7823,10 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="1">
@@ -6928,8 +7846,8 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="63" t="s">
-        <v>296</v>
+      <c r="J23" s="29" t="s">
+        <v>686</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -6937,10 +7855,10 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C24" s="1">
@@ -6960,8 +7878,8 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="63" t="s">
-        <v>297</v>
+      <c r="J24" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="K24" s="9"/>
       <c r="R24" s="1"/>
@@ -6970,10 +7888,10 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="1">
@@ -6993,8 +7911,8 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="63" t="s">
-        <v>297</v>
+      <c r="J25" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="K25" s="9"/>
       <c r="R25" s="1"/>
@@ -7003,10 +7921,10 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C26" s="1">
@@ -7026,8 +7944,8 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="63" t="s">
-        <v>298</v>
+      <c r="J26" s="29" t="s">
+        <v>687</v>
       </c>
       <c r="K26" s="9"/>
       <c r="R26" s="1"/>
@@ -7036,10 +7954,10 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C27" s="1">
@@ -7059,8 +7977,8 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="63" t="s">
-        <v>299</v>
+      <c r="J27" s="29" t="s">
+        <v>688</v>
       </c>
       <c r="K27" s="9"/>
       <c r="R27" s="1"/>
@@ -7069,10 +7987,10 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="1">
@@ -7092,8 +8010,8 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="63" t="s">
-        <v>300</v>
+      <c r="J28" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -7101,10 +8019,10 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="1">
@@ -7124,8 +8042,8 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="63" t="s">
-        <v>301</v>
+      <c r="J29" s="29" t="s">
+        <v>690</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -7133,10 +8051,10 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="1">
@@ -7156,8 +8074,8 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="63" t="s">
-        <v>302</v>
+      <c r="J30" s="29" t="s">
+        <v>443</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -7165,10 +8083,10 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="1">
@@ -7187,8 +8105,8 @@
         <v>1</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="63" t="s">
-        <v>303</v>
+      <c r="J31" s="29" t="s">
+        <v>444</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -7196,10 +8114,10 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="1">
@@ -7219,8 +8137,8 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="63" t="s">
-        <v>304</v>
+      <c r="J32" s="29" t="s">
+        <v>445</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -7228,10 +8146,10 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C33" s="1">
@@ -7251,8 +8169,8 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="63" t="s">
-        <v>303</v>
+      <c r="J33" s="29" t="s">
+        <v>444</v>
       </c>
       <c r="K33" s="9"/>
       <c r="R33" s="1"/>
@@ -7261,10 +8179,10 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C34" s="1">
@@ -7284,8 +8202,8 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="63" t="s">
-        <v>305</v>
+      <c r="J34" s="29" t="s">
+        <v>446</v>
       </c>
       <c r="K34" s="9"/>
       <c r="R34" s="1"/>
@@ -7294,10 +8212,10 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="1">
@@ -7317,8 +8235,8 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="63" t="s">
-        <v>306</v>
+      <c r="J35" s="29" t="s">
+        <v>447</v>
       </c>
       <c r="K35" s="9"/>
       <c r="R35" s="1"/>
@@ -7327,10 +8245,10 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C36" s="1">
@@ -7350,8 +8268,8 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="63" t="s">
-        <v>307</v>
+      <c r="J36" s="29" t="s">
+        <v>691</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -7359,10 +8277,10 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="1">
@@ -7382,8 +8300,8 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="63" t="s">
-        <v>308</v>
+      <c r="J37" s="29" t="s">
+        <v>452</v>
       </c>
       <c r="K37" s="9"/>
       <c r="R37" s="1"/>
@@ -7392,10 +8310,10 @@
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C38" s="1">
@@ -7415,8 +8333,8 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="63" t="s">
-        <v>309</v>
+      <c r="J38" s="29" t="s">
+        <v>453</v>
       </c>
       <c r="K38" s="9"/>
       <c r="R38" s="1"/>
@@ -7425,10 +8343,10 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C39" s="1">
@@ -7446,16 +8364,16 @@
       <c r="G39" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J39" s="63" t="s">
-        <v>310</v>
+      <c r="J39" s="29" t="s">
+        <v>454</v>
       </c>
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="1">
@@ -7473,16 +8391,16 @@
       <c r="G40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J40" s="63" t="s">
-        <v>311</v>
+      <c r="J40" s="29" t="s">
+        <v>455</v>
       </c>
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="1">
@@ -7500,16 +8418,16 @@
       <c r="G41" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="63" t="s">
-        <v>312</v>
+      <c r="J41" s="29" t="s">
+        <v>456</v>
       </c>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C42" s="1">
@@ -7527,16 +8445,16 @@
       <c r="G42" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="63" t="s">
-        <v>313</v>
+      <c r="J42" s="29" t="s">
+        <v>692</v>
       </c>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C43" s="1">
@@ -7554,16 +8472,16 @@
       <c r="G43" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="63" t="s">
-        <v>314</v>
+      <c r="J43" s="29" t="s">
+        <v>461</v>
       </c>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C44" s="1">
@@ -7581,16 +8499,16 @@
       <c r="G44" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J44" s="63" t="s">
-        <v>315</v>
+      <c r="J44" s="29" t="s">
+        <v>462</v>
       </c>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="1">
@@ -7608,16 +8526,16 @@
       <c r="G45" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J45" s="63" t="s">
-        <v>316</v>
+      <c r="J45" s="29" t="s">
+        <v>463</v>
       </c>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C46" s="1">
@@ -7635,16 +8553,16 @@
       <c r="G46" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="63" t="s">
-        <v>317</v>
+      <c r="J46" s="29" t="s">
+        <v>693</v>
       </c>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="1">
@@ -7662,16 +8580,16 @@
       <c r="G47" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J47" s="63" t="s">
-        <v>318</v>
+      <c r="J47" s="29" t="s">
+        <v>468</v>
       </c>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C48" s="1">
@@ -7689,16 +8607,16 @@
       <c r="G48" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="63" t="s">
-        <v>319</v>
+      <c r="J48" s="29" t="s">
+        <v>469</v>
       </c>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="1">
@@ -7716,16 +8634,16 @@
       <c r="G49" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="63" t="s">
-        <v>320</v>
+      <c r="J49" s="29" t="s">
+        <v>694</v>
       </c>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="1">
@@ -7743,16 +8661,16 @@
       <c r="G50" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J50" s="63" t="s">
-        <v>321</v>
+      <c r="J50" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C51" s="1">
@@ -7770,16 +8688,16 @@
       <c r="G51" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="63" t="s">
-        <v>322</v>
+      <c r="J51" s="29" t="s">
+        <v>695</v>
       </c>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="1">
@@ -7797,16 +8715,16 @@
       <c r="G52" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J52" s="63" t="s">
-        <v>323</v>
+      <c r="J52" s="29" t="s">
+        <v>696</v>
       </c>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="1">
@@ -7824,16 +8742,16 @@
       <c r="G53" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J53" s="63" t="s">
-        <v>324</v>
+      <c r="J53" s="29" t="s">
+        <v>697</v>
       </c>
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="1">
@@ -7851,16 +8769,16 @@
       <c r="G54" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="63" t="s">
-        <v>325</v>
+      <c r="J54" s="29" t="s">
+        <v>481</v>
       </c>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="1">
@@ -7878,16 +8796,16 @@
       <c r="G55" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="63" t="s">
-        <v>326</v>
+      <c r="J55" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="1">
@@ -7905,16 +8823,16 @@
       <c r="G56" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="63" t="s">
-        <v>327</v>
+      <c r="J56" s="29" t="s">
+        <v>483</v>
       </c>
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="1">
@@ -7932,16 +8850,16 @@
       <c r="G57" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J57" s="63" t="s">
-        <v>328</v>
+      <c r="J57" s="29" t="s">
+        <v>484</v>
       </c>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C58" s="1">
@@ -7959,16 +8877,16 @@
       <c r="G58" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J58" s="63" t="s">
-        <v>329</v>
+      <c r="J58" s="29" t="s">
+        <v>698</v>
       </c>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="1">
@@ -7986,16 +8904,16 @@
       <c r="G59" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J59" s="63" t="s">
-        <v>330</v>
+      <c r="J59" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C60" s="1">
@@ -8013,16 +8931,16 @@
       <c r="G60" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="63" t="s">
-        <v>331</v>
+      <c r="J60" s="29" t="s">
+        <v>485</v>
       </c>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C61" s="1">
@@ -8040,16 +8958,16 @@
       <c r="G61" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J61" s="63" t="s">
-        <v>332</v>
+      <c r="J61" s="29" t="s">
+        <v>700</v>
       </c>
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="1">
@@ -8067,16 +8985,16 @@
       <c r="G62" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J62" s="63" t="s">
-        <v>333</v>
+      <c r="J62" s="29" t="s">
+        <v>701</v>
       </c>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="28" t="s">
         <v>192</v>
       </c>
       <c r="C63" s="1">
@@ -8094,16 +9012,16 @@
       <c r="G63" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J63" s="63" t="s">
-        <v>334</v>
+      <c r="J63" s="29" t="s">
+        <v>502</v>
       </c>
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="28" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="1">
@@ -8121,16 +9039,16 @@
       <c r="G64" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J64" s="63" t="s">
-        <v>335</v>
+      <c r="J64" s="29" t="s">
+        <v>503</v>
       </c>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="28" t="s">
         <v>133</v>
       </c>
       <c r="C65" s="1">
@@ -8148,16 +9066,16 @@
       <c r="G65" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J65" s="63" t="s">
-        <v>336</v>
+      <c r="J65" s="29" t="s">
+        <v>504</v>
       </c>
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="1">
@@ -8175,16 +9093,16 @@
       <c r="G66" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J66" s="63" t="s">
-        <v>337</v>
+      <c r="J66" s="29" t="s">
+        <v>702</v>
       </c>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="1">
@@ -8202,16 +9120,16 @@
       <c r="G67" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J67" s="63" t="s">
-        <v>338</v>
+      <c r="J67" s="29" t="s">
+        <v>517</v>
       </c>
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C68" s="1">
@@ -8229,16 +9147,16 @@
       <c r="G68" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J68" s="63" t="s">
-        <v>339</v>
+      <c r="J68" s="29" t="s">
+        <v>518</v>
       </c>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C69" s="1">
@@ -8256,16 +9174,16 @@
       <c r="G69" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J69" s="63" t="s">
-        <v>340</v>
+      <c r="J69" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="1">
@@ -8283,16 +9201,16 @@
       <c r="G70" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="63" t="s">
-        <v>341</v>
+      <c r="J70" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C71" s="1">
@@ -8310,16 +9228,16 @@
       <c r="G71" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J71" s="63" t="s">
-        <v>342</v>
+      <c r="J71" s="29" t="s">
+        <v>533</v>
       </c>
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="1">
@@ -8337,16 +9255,16 @@
       <c r="G72" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J72" s="63" t="s">
-        <v>343</v>
+      <c r="J72" s="29" t="s">
+        <v>534</v>
       </c>
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="1">
@@ -8364,16 +9282,16 @@
       <c r="G73" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J73" s="63" t="s">
-        <v>344</v>
+      <c r="J73" s="29" t="s">
+        <v>705</v>
       </c>
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="1">
@@ -8391,16 +9309,16 @@
       <c r="G74" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J74" s="63" t="s">
-        <v>345</v>
+      <c r="J74" s="29" t="s">
+        <v>539</v>
       </c>
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="1">
@@ -8418,16 +9336,16 @@
       <c r="G75" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J75" s="63" t="s">
-        <v>346</v>
+      <c r="J75" s="29" t="s">
+        <v>540</v>
       </c>
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C76" s="1">
@@ -8445,16 +9363,16 @@
       <c r="G76" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="63" t="s">
-        <v>347</v>
+      <c r="J76" s="29" t="s">
+        <v>541</v>
       </c>
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C77" s="1">
@@ -8472,16 +9390,16 @@
       <c r="G77" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J77" s="63" t="s">
-        <v>348</v>
+      <c r="J77" s="29" t="s">
+        <v>706</v>
       </c>
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="28" t="s">
         <v>209</v>
       </c>
       <c r="C78" s="1">
@@ -8499,16 +9417,16 @@
       <c r="G78" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J78" s="63" t="s">
-        <v>349</v>
+      <c r="J78" s="29" t="s">
+        <v>546</v>
       </c>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="28" t="s">
         <v>211</v>
       </c>
       <c r="C79" s="1">
@@ -8526,16 +9444,16 @@
       <c r="G79" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J79" s="63" t="s">
-        <v>350</v>
+      <c r="J79" s="29" t="s">
+        <v>707</v>
       </c>
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="28" t="s">
         <v>213</v>
       </c>
       <c r="C80" s="1">
@@ -8553,16 +9471,16 @@
       <c r="G80" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J80" s="63" t="s">
-        <v>351</v>
+      <c r="J80" s="29" t="s">
+        <v>550</v>
       </c>
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="1">
@@ -8580,16 +9498,16 @@
       <c r="G81" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J81" s="63" t="s">
-        <v>352</v>
+      <c r="J81" s="29" t="s">
+        <v>549</v>
       </c>
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="1">
@@ -8607,16 +9525,16 @@
       <c r="G82" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J82" s="63" t="s">
-        <v>353</v>
+      <c r="J82" s="29" t="s">
+        <v>708</v>
       </c>
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="1">
@@ -8634,16 +9552,16 @@
       <c r="G83" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J83" s="63" t="s">
-        <v>354</v>
+      <c r="J83" s="29" t="s">
+        <v>555</v>
       </c>
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C84" s="1">
@@ -8661,16 +9579,16 @@
       <c r="G84" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J84" s="63" t="s">
-        <v>355</v>
+      <c r="J84" s="29" t="s">
+        <v>709</v>
       </c>
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C85" s="1">
@@ -8688,16 +9606,16 @@
       <c r="G85" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J85" s="63" t="s">
-        <v>356</v>
+      <c r="J85" s="29" t="s">
+        <v>710</v>
       </c>
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C86" s="1">
@@ -8715,16 +9633,16 @@
       <c r="G86" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J86" s="63" t="s">
-        <v>357</v>
+      <c r="J86" s="29" t="s">
+        <v>711</v>
       </c>
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C87" s="1">
@@ -8742,16 +9660,16 @@
       <c r="G87" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J87" s="63" t="s">
-        <v>358</v>
+      <c r="J87" s="29" t="s">
+        <v>712</v>
       </c>
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C88" s="1">
@@ -8769,16 +9687,16 @@
       <c r="G88" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J88" s="63" t="s">
-        <v>359</v>
+      <c r="J88" s="29" t="s">
+        <v>578</v>
       </c>
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C89" s="1">
@@ -8796,16 +9714,16 @@
       <c r="G89" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J89" s="63" t="s">
-        <v>360</v>
+      <c r="J89" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C90" s="1">
@@ -8823,16 +9741,16 @@
       <c r="G90" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J90" s="63" t="s">
-        <v>361</v>
+      <c r="J90" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="62" t="s">
+      <c r="A91" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C91" s="1">
@@ -8850,16 +9768,16 @@
       <c r="G91" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J91" s="63" t="s">
-        <v>362</v>
+      <c r="J91" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C92" s="1">
@@ -8877,16 +9795,16 @@
       <c r="G92" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J92" s="63" t="s">
-        <v>363</v>
+      <c r="J92" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="62" t="s">
+      <c r="A93" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C93" s="1">
@@ -8904,16 +9822,16 @@
       <c r="G93" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J93" s="63" t="s">
-        <v>364</v>
+      <c r="J93" s="29" t="s">
+        <v>713</v>
       </c>
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C94" s="1">
@@ -8931,16 +9849,16 @@
       <c r="G94" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J94" s="63" t="s">
-        <v>365</v>
+      <c r="J94" s="29" t="s">
+        <v>714</v>
       </c>
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="62" t="s">
+      <c r="A95" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C95" s="1">
@@ -8958,16 +9876,16 @@
       <c r="G95" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J95" s="63" t="s">
-        <v>366</v>
+      <c r="J95" s="29" t="s">
+        <v>591</v>
       </c>
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="62" t="s">
+      <c r="A96" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C96" s="1">
@@ -8985,16 +9903,16 @@
       <c r="G96" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J96" s="63" t="s">
-        <v>367</v>
+      <c r="J96" s="29" t="s">
+        <v>592</v>
       </c>
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="62" t="s">
+      <c r="A97" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="1">
@@ -9012,16 +9930,16 @@
       <c r="G97" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J97" s="63" t="s">
-        <v>368</v>
+      <c r="J97" s="29" t="s">
+        <v>593</v>
       </c>
       <c r="S97" s="1"/>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="62" t="s">
+      <c r="B98" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C98" s="1">
@@ -9039,16 +9957,16 @@
       <c r="G98" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J98" s="63" t="s">
-        <v>369</v>
+      <c r="J98" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="1">
@@ -9066,16 +9984,16 @@
       <c r="G99" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J99" s="63" t="s">
-        <v>370</v>
+      <c r="J99" s="29" t="s">
+        <v>598</v>
       </c>
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C100" s="1">
@@ -9093,16 +10011,16 @@
       <c r="G100" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J100" s="63" t="s">
-        <v>371</v>
+      <c r="J100" s="29" t="s">
+        <v>716</v>
       </c>
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="28" t="s">
         <v>235</v>
       </c>
       <c r="C101" s="1">
@@ -9120,16 +10038,16 @@
       <c r="G101" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J101" s="63" t="s">
-        <v>372</v>
+      <c r="J101" s="29" t="s">
+        <v>601</v>
       </c>
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62" t="s">
+      <c r="A102" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="28" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="1">
@@ -9147,16 +10065,16 @@
       <c r="G102" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J102" s="63" t="s">
-        <v>373</v>
+      <c r="J102" s="29" t="s">
+        <v>602</v>
       </c>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="62" t="s">
+      <c r="A103" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C103" s="1">
@@ -9174,16 +10092,16 @@
       <c r="G103" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J103" s="63" t="s">
-        <v>374</v>
+      <c r="J103" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="62" t="s">
+      <c r="A104" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C104" s="1">
@@ -9201,16 +10119,16 @@
       <c r="G104" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J104" s="63" t="s">
-        <v>375</v>
+      <c r="J104" s="29" t="s">
+        <v>605</v>
       </c>
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="62" t="s">
+      <c r="A105" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="28" t="s">
         <v>133</v>
       </c>
       <c r="C105" s="1">
@@ -9228,16 +10146,16 @@
       <c r="G105" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J105" s="63" t="s">
-        <v>376</v>
+      <c r="J105" s="29" t="s">
+        <v>606</v>
       </c>
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="62" t="s">
+      <c r="A106" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C106" s="1">
@@ -9255,16 +10173,16 @@
       <c r="G106" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J106" s="63" t="s">
-        <v>377</v>
+      <c r="J106" s="29" t="s">
+        <v>607</v>
       </c>
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="62" t="s">
+      <c r="A107" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C107" s="1">
@@ -9282,16 +10200,16 @@
       <c r="G107" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="63" t="s">
-        <v>378</v>
+      <c r="J107" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="62" t="s">
+      <c r="B108" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C108" s="1">
@@ -9309,16 +10227,16 @@
       <c r="G108" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J108" s="63" t="s">
-        <v>377</v>
+      <c r="J108" s="29" t="s">
+        <v>607</v>
       </c>
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="62" t="s">
+      <c r="A109" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="1">
@@ -9336,16 +10254,16 @@
       <c r="G109" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J109" s="63" t="s">
-        <v>379</v>
+      <c r="J109" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="62" t="s">
+      <c r="A110" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="62" t="s">
+      <c r="B110" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C110" s="1">
@@ -9363,16 +10281,16 @@
       <c r="G110" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J110" s="63" t="s">
-        <v>380</v>
+      <c r="J110" s="29" t="s">
+        <v>425</v>
       </c>
       <c r="S110" s="1"/>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="62" t="s">
+      <c r="A111" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="62" t="s">
+      <c r="B111" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C111" s="1">
@@ -9390,16 +10308,16 @@
       <c r="G111" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J111" s="63" t="s">
-        <v>381</v>
+      <c r="J111" s="29" t="s">
+        <v>618</v>
       </c>
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="62" t="s">
+      <c r="A112" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="1">
@@ -9417,16 +10335,16 @@
       <c r="G112" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J112" s="63" t="s">
-        <v>382</v>
+      <c r="J112" s="29" t="s">
+        <v>619</v>
       </c>
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C113" s="1">
@@ -9444,16 +10362,16 @@
       <c r="G113" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J113" s="63" t="s">
-        <v>383</v>
+      <c r="J113" s="29" t="s">
+        <v>620</v>
       </c>
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="62" t="s">
+      <c r="A114" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C114" s="1">
@@ -9471,16 +10389,16 @@
       <c r="G114" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J114" s="63" t="s">
-        <v>384</v>
+      <c r="J114" s="29" t="s">
+        <v>621</v>
       </c>
       <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="62" t="s">
+      <c r="A115" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B115" s="62" t="s">
+      <c r="B115" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="1">
@@ -9498,16 +10416,16 @@
       <c r="G115" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J115" s="63" t="s">
-        <v>385</v>
+      <c r="J115" s="29" t="s">
+        <v>720</v>
       </c>
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C116" s="1">
@@ -9525,16 +10443,16 @@
       <c r="G116" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J116" s="63" t="s">
-        <v>386</v>
+      <c r="J116" s="29" t="s">
+        <v>626</v>
       </c>
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B117" s="62" t="s">
+      <c r="B117" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C117" s="1">
@@ -9552,16 +10470,16 @@
       <c r="G117" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J117" s="63" t="s">
-        <v>387</v>
+      <c r="J117" s="29" t="s">
+        <v>627</v>
       </c>
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="62" t="s">
+      <c r="A118" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="28" t="s">
         <v>154</v>
       </c>
       <c r="C118" s="1">
@@ -9579,16 +10497,16 @@
       <c r="G118" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J118" s="63" t="s">
-        <v>388</v>
+      <c r="J118" s="29" t="s">
+        <v>628</v>
       </c>
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="62" t="s">
+      <c r="A119" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C119" s="1">
@@ -9606,16 +10524,16 @@
       <c r="G119" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J119" s="63" t="s">
-        <v>389</v>
+      <c r="J119" s="29" t="s">
+        <v>629</v>
       </c>
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B120" s="62" t="s">
+      <c r="B120" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C120" s="1">
@@ -9633,16 +10551,16 @@
       <c r="G120" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J120" s="63" t="s">
-        <v>390</v>
+      <c r="J120" s="29" t="s">
+        <v>630</v>
       </c>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="62" t="s">
+      <c r="A121" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B121" s="62" t="s">
+      <c r="B121" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C121" s="1">
@@ -9660,16 +10578,16 @@
       <c r="G121" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J121" s="63" t="s">
-        <v>391</v>
+      <c r="J121" s="29" t="s">
+        <v>631</v>
       </c>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B122" s="62" t="s">
+      <c r="B122" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C122" s="1">
@@ -9687,16 +10605,16 @@
       <c r="G122" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J122" s="63" t="s">
-        <v>392</v>
+      <c r="J122" s="29" t="s">
+        <v>632</v>
       </c>
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="62" t="s">
+      <c r="A123" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="62" t="s">
+      <c r="B123" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C123" s="1">
@@ -9714,16 +10632,16 @@
       <c r="G123" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J123" s="63" t="s">
-        <v>393</v>
+      <c r="J123" s="29" t="s">
+        <v>721</v>
       </c>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="62" t="s">
+      <c r="B124" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C124" s="1">
@@ -9741,16 +10659,16 @@
       <c r="G124" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J124" s="63" t="s">
-        <v>394</v>
+      <c r="J124" s="29" t="s">
+        <v>633</v>
       </c>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B125" s="62" t="s">
+      <c r="B125" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="1">
@@ -9768,16 +10686,16 @@
       <c r="G125" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J125" s="63" t="s">
-        <v>395</v>
+      <c r="J125" s="29" t="s">
+        <v>634</v>
       </c>
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="62" t="s">
+      <c r="A126" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="1">
@@ -9795,16 +10713,16 @@
       <c r="G126" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J126" s="63" t="s">
-        <v>396</v>
+      <c r="J126" s="29" t="s">
+        <v>635</v>
       </c>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="62" t="s">
+      <c r="A127" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="62" t="s">
+      <c r="B127" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C127" s="1">
@@ -9822,16 +10740,16 @@
       <c r="G127" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J127" s="63" t="s">
-        <v>397</v>
+      <c r="J127" s="29" t="s">
+        <v>722</v>
       </c>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="62" t="s">
+      <c r="A128" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B128" s="62" t="s">
+      <c r="B128" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C128" s="1">
@@ -9849,16 +10767,16 @@
       <c r="G128" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J128" s="63" t="s">
-        <v>398</v>
+      <c r="J128" s="29" t="s">
+        <v>640</v>
       </c>
       <c r="S128" s="1"/>
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="62" t="s">
+      <c r="A129" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="B129" s="62" t="s">
+      <c r="B129" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C129" s="1">
@@ -9876,16 +10794,16 @@
       <c r="G129" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J129" s="63" t="s">
-        <v>399</v>
+      <c r="J129" s="29" t="s">
+        <v>641</v>
       </c>
       <c r="S129" s="1"/>
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="62" t="s">
+      <c r="A130" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="62" t="s">
+      <c r="B130" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="1">
@@ -9903,17 +10821,17 @@
       <c r="G130" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J130" s="63" t="s">
-        <v>400</v>
+      <c r="J130" s="29" t="s">
+        <v>723</v>
       </c>
       <c r="M130" s="9"/>
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="62" t="s">
+      <c r="A131" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B131" s="62" t="s">
+      <c r="B131" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C131" s="1">
@@ -9931,16 +10849,16 @@
       <c r="G131" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J131" s="63" t="s">
-        <v>372</v>
+      <c r="J131" s="29" t="s">
+        <v>601</v>
       </c>
       <c r="S131" s="1"/>
     </row>
     <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="62" t="s">
+      <c r="A132" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="62" t="s">
+      <c r="B132" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C132" s="1">
@@ -9958,16 +10876,16 @@
       <c r="G132" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J132" s="63" t="s">
-        <v>401</v>
+      <c r="J132" s="29" t="s">
+        <v>724</v>
       </c>
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="62" t="s">
+      <c r="A133" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="1">
@@ -9985,16 +10903,16 @@
       <c r="G133" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J133" s="63" t="s">
-        <v>402</v>
+      <c r="J133" s="29" t="s">
+        <v>725</v>
       </c>
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C134" s="1">
@@ -10012,15 +10930,15 @@
       <c r="G134" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J134" s="63" t="s">
-        <v>403</v>
+      <c r="J134" s="29" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="62" t="s">
+      <c r="A135" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="62" t="s">
+      <c r="B135" s="28" t="s">
         <v>126</v>
       </c>
       <c r="C135" s="1">
@@ -10038,8 +10956,8 @@
       <c r="G135" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J135" s="63" t="s">
-        <v>404</v>
+      <c r="J135" s="29" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10065,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>405</v>
+        <v>663</v>
       </c>
       <c r="M136" s="1">
         <v>10000</v>
@@ -10106,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>406</v>
+        <v>664</v>
       </c>
       <c r="L137" s="1">
         <v>10000</v>
@@ -10125,10 +11043,10 @@
       </c>
     </row>
     <row r="138" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="62" t="s">
+      <c r="A138" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B138" s="62" t="s">
+      <c r="B138" s="28" t="s">
         <v>273</v>
       </c>
       <c r="C138" s="1">
@@ -10147,14 +11065,14 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>407</v>
+        <v>665</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="62" t="s">
+      <c r="A139" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="28" t="s">
         <v>274</v>
       </c>
       <c r="C139" s="1">
@@ -10173,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>408</v>
+        <v>666</v>
       </c>
       <c r="M139" s="1">
         <v>10000</v>
@@ -10943,10 +11861,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10989,160 +11907,2664 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="6"/>
+      <c r="A13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="6"/>
+      <c r="A15" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H53" s="6"/>
+      <c r="A16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I60" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I61" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I62" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I63" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I64" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="I65" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I66" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I67" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I68" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I69" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I70" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I71" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I72" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I73" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="I74" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I75" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I76" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I77" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I78" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I79" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I80" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I81" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I82" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I83" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I84" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I85" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I86" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I87" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I89" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I90" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I91" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I92" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I93" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I94" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I95" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I96" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I97" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H98" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I98" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="H99" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I99" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="H100" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I102" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I104" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I105" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I106" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I107" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H108" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I108" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I109" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I110" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I111" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I112" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I113" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I114" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I115" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I116" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I117" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I118" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I119" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I120" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I121" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I122" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I123" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I124" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I125" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I126" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I127" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I128" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="H129" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I129" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H130" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I130" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H131" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I131" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H132" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I132" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H133" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I133" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H134" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I134" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="H135" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I135" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H136" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I136" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="H137" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I137" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H138" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="I138" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H139" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H140" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I140" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H141" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I141" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="H142" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I142" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="H143" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I143" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H144" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I144" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="H145" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I145" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H146" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I146" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H147" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I147" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H148" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I148" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I149" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H150" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I150" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H151" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I151" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H152" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I152" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H153" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I153" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H154" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I154" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H155" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I155" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="H156" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I156" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H157" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I157" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H158" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I158" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H159" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I159" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H160" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I160" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="H161" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I161" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H162" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I162" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H163" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I163" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H164" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I164" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H165" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I165" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H166" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I166" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="H167" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I167" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H168" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I168" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H169" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I169" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H170" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I170" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H171" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I171" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H172" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I172" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="H173" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I173" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="H174" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I174" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H175" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I175" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H176" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I176" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H177" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I177" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="H178" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I178" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="H179" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I179" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="H180" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I180" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="H181" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="I181" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="H182" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I182" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="H183" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I183" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="H184" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I184" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="H185" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I185" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="H186" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I186" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H187" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="I187" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I188" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I189" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I190" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I191" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11208,7 +14630,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -11231,7 +14653,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -11254,7 +14676,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -11277,7 +14699,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -11397,7 +14819,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -11405,7 +14827,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -11413,7 +14835,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
@@ -11421,7 +14843,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -11429,7 +14851,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
@@ -11437,7 +14859,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
@@ -11445,7 +14867,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -11453,7 +14875,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>88</v>
@@ -11513,16 +14935,16 @@
     <row r="1" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>47</v>
@@ -11810,28 +15232,28 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>

--- a/V1/Dataset/GECCO21.xlsx
+++ b/V1/Dataset/GECCO21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16189490-3618-493E-A73D-30F49E7F455B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F4C3B-7F95-42EA-BDB1-D89D0B6B849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="725">
   <si>
     <t>Sessions</t>
   </si>
@@ -2480,12 +2480,6 @@
   </si>
   <si>
     <t>Preferred Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Min Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Max Number of Timeslots:</t>
   </si>
   <si>
     <t>Submission</t>
@@ -4663,6 +4657,18 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4672,12 +4678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4686,6 +4686,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4699,22 +4705,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4731,6 +4725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4753,17 +4750,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5133,7 +5127,7 @@
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="52"/>
@@ -5156,347 +5150,347 @@
       <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="62"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="62"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="62"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -5505,418 +5499,448 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="48"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="42"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="63"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="64"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="42"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="48"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="32"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="42"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="42"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="47"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="48"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="32"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="38"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="38"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="40"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="42"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="42"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="42"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="42"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="46"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="42"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="42"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="46"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="42"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="46"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="42"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="48"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -5933,36 +5957,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5990,90 +5984,90 @@
     <row r="1" spans="1:28" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Z1" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="8"/>
       <c r="O2" s="1">
@@ -6082,7 +6076,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6092,7 +6086,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6103,7 +6097,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6112,7 +6106,7 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6125,7 +6119,7 @@
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6139,7 +6133,7 @@
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6154,7 +6148,7 @@
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6170,7 +6164,7 @@
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6187,7 +6181,7 @@
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6205,7 +6199,7 @@
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6224,7 +6218,7 @@
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6241,7 +6235,7 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6262,7 +6256,7 @@
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6281,7 +6275,7 @@
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6301,7 +6295,7 @@
     </row>
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6322,7 +6316,7 @@
     </row>
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6344,7 +6338,7 @@
     </row>
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6367,7 +6361,7 @@
     </row>
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6391,7 +6385,7 @@
     </row>
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6416,7 +6410,7 @@
     </row>
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6442,7 +6436,7 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6469,7 +6463,7 @@
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6497,7 +6491,7 @@
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6526,7 +6520,7 @@
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6556,7 +6550,7 @@
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6587,7 +6581,7 @@
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6643,28 +6637,28 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -6674,22 +6668,22 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6712,10 +6706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6750,7 +6744,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>50</v>
@@ -6833,7 +6827,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="25">
         <v>9</v>
@@ -6989,22 +6983,6 @@
       </c>
       <c r="E29" s="25">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="25">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7019,7 +6997,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
@@ -7041,7 +7019,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -7074,16 +7052,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>363</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>47</v>
@@ -7092,36 +7070,36 @@
         <v>48</v>
       </c>
       <c r="R1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>371</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -7141,7 +7119,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K2" s="9"/>
       <c r="R2" s="1"/>
@@ -7152,10 +7130,10 @@
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -7175,7 +7153,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K3" s="9"/>
       <c r="R3" s="1"/>
@@ -7186,10 +7164,10 @@
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -7209,7 +7187,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K4" s="9"/>
       <c r="R4" s="1"/>
@@ -7220,10 +7198,10 @@
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -7243,7 +7221,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K5" s="9"/>
       <c r="R5" s="1"/>
@@ -7254,10 +7232,10 @@
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -7277,7 +7255,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K6" s="9"/>
       <c r="R6" s="1"/>
@@ -7288,10 +7266,10 @@
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -7311,7 +7289,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K7" s="9"/>
       <c r="R7" s="1"/>
@@ -7322,10 +7300,10 @@
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -7345,7 +7323,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K8" s="9"/>
       <c r="R8" s="1"/>
@@ -7356,10 +7334,10 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -7379,7 +7357,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K9" s="9"/>
       <c r="R9" s="1"/>
@@ -7390,10 +7368,10 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -7413,7 +7391,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K10" s="9"/>
       <c r="R10" s="1"/>
@@ -7424,10 +7402,10 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -7447,7 +7425,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K11" s="9"/>
       <c r="R11" s="1"/>
@@ -7458,10 +7436,10 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -7481,7 +7459,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K12" s="9"/>
       <c r="R12" s="1"/>
@@ -7492,10 +7470,10 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -7515,7 +7493,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K13" s="9"/>
       <c r="R13" s="1"/>
@@ -7526,10 +7504,10 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -7549,7 +7527,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K14" s="9"/>
       <c r="R14" s="1"/>
@@ -7560,10 +7538,10 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -7583,7 +7561,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K15" s="9"/>
       <c r="R15" s="1"/>
@@ -7594,10 +7572,10 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -7617,7 +7595,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K16" s="9"/>
       <c r="R16" s="1"/>
@@ -7628,10 +7606,10 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -7651,7 +7629,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K17" s="9"/>
       <c r="R17" s="1"/>
@@ -7662,10 +7640,10 @@
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -7685,7 +7663,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K18" s="9"/>
       <c r="R18" s="1"/>
@@ -7696,10 +7674,10 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -7719,7 +7697,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -7728,10 +7706,10 @@
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -7751,7 +7729,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -7760,10 +7738,10 @@
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -7783,7 +7761,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -7792,10 +7770,10 @@
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -7815,7 +7793,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -7824,10 +7802,10 @@
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -7847,7 +7825,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -7856,10 +7834,10 @@
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -7879,7 +7857,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K24" s="9"/>
       <c r="R24" s="1"/>
@@ -7889,10 +7867,10 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -7912,7 +7890,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K25" s="9"/>
       <c r="R25" s="1"/>
@@ -7922,10 +7900,10 @@
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -7945,7 +7923,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K26" s="9"/>
       <c r="R26" s="1"/>
@@ -7955,10 +7933,10 @@
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -7978,7 +7956,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K27" s="9"/>
       <c r="R27" s="1"/>
@@ -7988,10 +7966,10 @@
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -8011,7 +7989,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -8020,10 +7998,10 @@
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -8043,7 +8021,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -8052,10 +8030,10 @@
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -8075,7 +8053,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -8084,10 +8062,10 @@
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -8106,7 +8084,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -8115,10 +8093,10 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -8138,7 +8116,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -8147,10 +8125,10 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -8170,7 +8148,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K33" s="9"/>
       <c r="R33" s="1"/>
@@ -8180,10 +8158,10 @@
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -8203,7 +8181,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K34" s="9"/>
       <c r="R34" s="1"/>
@@ -8213,10 +8191,10 @@
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -8236,7 +8214,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K35" s="9"/>
       <c r="R35" s="1"/>
@@ -8246,10 +8224,10 @@
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -8269,7 +8247,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -8278,10 +8256,10 @@
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -8301,7 +8279,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K37" s="9"/>
       <c r="R37" s="1"/>
@@ -8311,10 +8289,10 @@
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -8334,7 +8312,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K38" s="9"/>
       <c r="R38" s="1"/>
@@ -8344,10 +8322,10 @@
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -8365,16 +8343,16 @@
         <v>1</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -8392,16 +8370,16 @@
         <v>1</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -8419,16 +8397,16 @@
         <v>1</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -8446,16 +8424,16 @@
         <v>1</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -8473,16 +8451,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -8500,16 +8478,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -8527,16 +8505,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -8554,16 +8532,16 @@
         <v>1</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -8581,16 +8559,16 @@
         <v>1</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -8608,16 +8586,16 @@
         <v>1</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -8635,16 +8613,16 @@
         <v>1</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -8662,16 +8640,16 @@
         <v>1</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -8689,16 +8667,16 @@
         <v>1</v>
       </c>
       <c r="J51" s="29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -8716,16 +8694,16 @@
         <v>1</v>
       </c>
       <c r="J52" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -8743,16 +8721,16 @@
         <v>1</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -8770,16 +8748,16 @@
         <v>1</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -8797,16 +8775,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -8824,16 +8802,16 @@
         <v>1</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -8851,16 +8829,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -8878,16 +8856,16 @@
         <v>1</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -8905,16 +8883,16 @@
         <v>1</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -8932,16 +8910,16 @@
         <v>1</v>
       </c>
       <c r="J60" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -8959,16 +8937,16 @@
         <v>1</v>
       </c>
       <c r="J61" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -8986,16 +8964,16 @@
         <v>1</v>
       </c>
       <c r="J62" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -9013,16 +8991,16 @@
         <v>1</v>
       </c>
       <c r="J63" s="29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -9040,16 +9018,16 @@
         <v>1</v>
       </c>
       <c r="J64" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -9067,16 +9045,16 @@
         <v>1</v>
       </c>
       <c r="J65" s="29" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -9094,16 +9072,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -9121,16 +9099,16 @@
         <v>1</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -9148,16 +9126,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -9175,16 +9153,16 @@
         <v>1</v>
       </c>
       <c r="J69" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -9202,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="J70" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -9229,16 +9207,16 @@
         <v>1</v>
       </c>
       <c r="J71" s="29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -9256,16 +9234,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -9283,16 +9261,16 @@
         <v>1</v>
       </c>
       <c r="J73" s="29" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -9310,16 +9288,16 @@
         <v>1</v>
       </c>
       <c r="J74" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -9337,16 +9315,16 @@
         <v>1</v>
       </c>
       <c r="J75" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -9364,16 +9342,16 @@
         <v>1</v>
       </c>
       <c r="J76" s="29" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -9391,16 +9369,16 @@
         <v>1</v>
       </c>
       <c r="J77" s="29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -9418,16 +9396,16 @@
         <v>1</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -9445,16 +9423,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -9472,16 +9450,16 @@
         <v>1</v>
       </c>
       <c r="J80" s="29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -9499,16 +9477,16 @@
         <v>1</v>
       </c>
       <c r="J81" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -9526,16 +9504,16 @@
         <v>1</v>
       </c>
       <c r="J82" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -9553,16 +9531,16 @@
         <v>1</v>
       </c>
       <c r="J83" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9580,16 +9558,16 @@
         <v>1</v>
       </c>
       <c r="J84" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -9607,16 +9585,16 @@
         <v>1</v>
       </c>
       <c r="J85" s="29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -9634,16 +9612,16 @@
         <v>1</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -9661,16 +9639,16 @@
         <v>1</v>
       </c>
       <c r="J87" s="29" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -9688,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="J88" s="29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -9715,16 +9693,16 @@
         <v>1</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -9742,16 +9720,16 @@
         <v>1</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -9769,16 +9747,16 @@
         <v>1</v>
       </c>
       <c r="J91" s="29" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -9796,16 +9774,16 @@
         <v>1</v>
       </c>
       <c r="J92" s="29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -9823,16 +9801,16 @@
         <v>1</v>
       </c>
       <c r="J93" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -9850,16 +9828,16 @@
         <v>1</v>
       </c>
       <c r="J94" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -9877,16 +9855,16 @@
         <v>1</v>
       </c>
       <c r="J95" s="29" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -9904,16 +9882,16 @@
         <v>1</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -9931,16 +9909,16 @@
         <v>1</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S97" s="1"/>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -9958,16 +9936,16 @@
         <v>1</v>
       </c>
       <c r="J98" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -9985,16 +9963,16 @@
         <v>1</v>
       </c>
       <c r="J99" s="29" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -10012,16 +9990,16 @@
         <v>1</v>
       </c>
       <c r="J100" s="29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -10039,16 +10017,16 @@
         <v>1</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -10066,16 +10044,16 @@
         <v>1</v>
       </c>
       <c r="J102" s="29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -10093,16 +10071,16 @@
         <v>1</v>
       </c>
       <c r="J103" s="29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -10120,16 +10098,16 @@
         <v>1</v>
       </c>
       <c r="J104" s="29" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -10147,16 +10125,16 @@
         <v>1</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -10174,16 +10152,16 @@
         <v>1</v>
       </c>
       <c r="J106" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -10201,16 +10179,16 @@
         <v>1</v>
       </c>
       <c r="J107" s="29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -10228,16 +10206,16 @@
         <v>1</v>
       </c>
       <c r="J108" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -10255,16 +10233,16 @@
         <v>1</v>
       </c>
       <c r="J109" s="29" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -10282,16 +10260,16 @@
         <v>1</v>
       </c>
       <c r="J110" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="S110" s="1"/>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -10309,16 +10287,16 @@
         <v>1</v>
       </c>
       <c r="J111" s="29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -10336,16 +10314,16 @@
         <v>1</v>
       </c>
       <c r="J112" s="29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -10363,16 +10341,16 @@
         <v>1</v>
       </c>
       <c r="J113" s="29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -10390,16 +10368,16 @@
         <v>1</v>
       </c>
       <c r="J114" s="29" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -10417,16 +10395,16 @@
         <v>1</v>
       </c>
       <c r="J115" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -10444,16 +10422,16 @@
         <v>1</v>
       </c>
       <c r="J116" s="29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -10471,16 +10449,16 @@
         <v>1</v>
       </c>
       <c r="J117" s="29" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -10498,16 +10476,16 @@
         <v>1</v>
       </c>
       <c r="J118" s="29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -10525,16 +10503,16 @@
         <v>1</v>
       </c>
       <c r="J119" s="29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -10552,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="J120" s="29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -10579,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="J121" s="29" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -10606,16 +10584,16 @@
         <v>1</v>
       </c>
       <c r="J122" s="29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -10633,16 +10611,16 @@
         <v>1</v>
       </c>
       <c r="J123" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -10660,16 +10638,16 @@
         <v>1</v>
       </c>
       <c r="J124" s="29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -10687,16 +10665,16 @@
         <v>1</v>
       </c>
       <c r="J125" s="29" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -10714,16 +10692,16 @@
         <v>1</v>
       </c>
       <c r="J126" s="29" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -10741,16 +10719,16 @@
         <v>1</v>
       </c>
       <c r="J127" s="29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -10768,16 +10746,16 @@
         <v>1</v>
       </c>
       <c r="J128" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="S128" s="1"/>
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -10795,16 +10773,16 @@
         <v>1</v>
       </c>
       <c r="J129" s="29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="S129" s="1"/>
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -10822,17 +10800,17 @@
         <v>1</v>
       </c>
       <c r="J130" s="29" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M130" s="9"/>
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -10850,16 +10828,16 @@
         <v>1</v>
       </c>
       <c r="J131" s="29" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="S131" s="1"/>
     </row>
     <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -10877,16 +10855,16 @@
         <v>1</v>
       </c>
       <c r="J132" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -10904,16 +10882,16 @@
         <v>1</v>
       </c>
       <c r="J133" s="29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -10931,15 +10909,15 @@
         <v>1</v>
       </c>
       <c r="J134" s="29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -10957,15 +10935,15 @@
         <v>1</v>
       </c>
       <c r="J135" s="29" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -10983,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M136" s="1">
         <v>10000</v>
@@ -11003,10 +10981,10 @@
     </row>
     <row r="137" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -11024,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L137" s="1">
         <v>10000</v>
@@ -11044,10 +11022,10 @@
     </row>
     <row r="138" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -11065,15 +11043,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -11091,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M139" s="1">
         <v>10000</v>
@@ -11416,7 +11394,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -11430,7 +11408,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -11444,7 +11422,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -11459,7 +11437,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -11473,7 +11451,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -11489,7 +11467,7 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -11505,7 +11483,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -11521,7 +11499,7 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -11537,7 +11515,7 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11553,7 +11531,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -11568,7 +11546,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -11583,7 +11561,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -11598,7 +11576,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -11613,7 +11591,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -11628,7 +11606,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -11643,7 +11621,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -11658,7 +11636,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -11673,7 +11651,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -11688,7 +11666,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -11703,7 +11681,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -11718,7 +11696,7 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -11733,7 +11711,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -11748,7 +11726,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -11763,7 +11741,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -11778,7 +11756,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -11793,7 +11771,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -11808,7 +11786,7 @@
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -11908,13 +11886,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>0</v>
@@ -11922,13 +11900,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>0</v>
@@ -11936,13 +11914,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
@@ -11950,13 +11928,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
@@ -11964,13 +11942,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -11978,13 +11956,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -11992,13 +11970,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>0</v>
@@ -12006,13 +11984,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>0</v>
@@ -12020,13 +11998,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>0</v>
@@ -12034,13 +12012,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
@@ -12048,13 +12026,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
@@ -12062,13 +12040,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -12076,13 +12054,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
@@ -12090,13 +12068,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
@@ -12104,13 +12082,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
@@ -12118,13 +12096,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
@@ -12132,13 +12110,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -12146,13 +12124,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>0</v>
@@ -12160,13 +12138,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>0</v>
@@ -12174,13 +12152,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>0</v>
@@ -12188,13 +12166,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>0</v>
@@ -12202,13 +12180,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>0</v>
@@ -12216,13 +12194,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
@@ -12230,13 +12208,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>0</v>
@@ -12244,13 +12222,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>0</v>
@@ -12258,13 +12236,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>0</v>
@@ -12272,13 +12250,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>0</v>
@@ -12286,13 +12264,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>0</v>
@@ -12300,13 +12278,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>0</v>
@@ -12314,13 +12292,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>0</v>
@@ -12328,13 +12306,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>0</v>
@@ -12342,13 +12320,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>0</v>
@@ -12356,13 +12334,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>0</v>
@@ -12370,13 +12348,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>0</v>
@@ -12384,13 +12362,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>0</v>
@@ -12398,13 +12376,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>0</v>
@@ -12412,13 +12390,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>0</v>
@@ -12426,13 +12404,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>0</v>
@@ -12440,13 +12418,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>0</v>
@@ -12454,13 +12432,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>0</v>
@@ -12468,13 +12446,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>0</v>
@@ -12482,13 +12460,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>0</v>
@@ -12496,13 +12474,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>0</v>
@@ -12510,13 +12488,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>0</v>
@@ -12524,13 +12502,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>0</v>
@@ -12538,13 +12516,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>0</v>
@@ -12552,13 +12530,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>0</v>
@@ -12566,13 +12544,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>0</v>
@@ -12580,13 +12558,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>0</v>
@@ -12594,13 +12572,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>0</v>
@@ -12608,13 +12586,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>0</v>
@@ -12622,13 +12600,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>0</v>
@@ -12636,13 +12614,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>0</v>
@@ -12650,13 +12628,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I55" s="1" t="b">
         <v>0</v>
@@ -12664,13 +12642,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I56" s="1" t="b">
         <v>0</v>
@@ -12678,13 +12656,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I57" s="1" t="b">
         <v>0</v>
@@ -12692,13 +12670,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I58" s="1" t="b">
         <v>0</v>
@@ -12706,13 +12684,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>0</v>
@@ -12720,13 +12698,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>0</v>
@@ -12734,13 +12712,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I61" s="1" t="b">
         <v>0</v>
@@ -12748,13 +12726,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>0</v>
@@ -12762,13 +12740,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I63" s="1" t="b">
         <v>0</v>
@@ -12776,13 +12754,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>0</v>
@@ -12790,13 +12768,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I65" s="1" t="b">
         <v>0</v>
@@ -12804,13 +12782,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I66" s="1" t="b">
         <v>0</v>
@@ -12818,13 +12796,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I67" s="1" t="b">
         <v>0</v>
@@ -12832,13 +12810,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I68" s="1" t="b">
         <v>0</v>
@@ -12846,13 +12824,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I69" s="1" t="b">
         <v>0</v>
@@ -12860,13 +12838,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I70" s="1" t="b">
         <v>0</v>
@@ -12874,13 +12852,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I71" s="1" t="b">
         <v>0</v>
@@ -12888,13 +12866,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I72" s="1" t="b">
         <v>0</v>
@@ -12902,13 +12880,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I73" s="1" t="b">
         <v>0</v>
@@ -12916,13 +12894,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I74" s="1" t="b">
         <v>0</v>
@@ -12930,13 +12908,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I75" s="1" t="b">
         <v>0</v>
@@ -12944,13 +12922,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I76" s="1" t="b">
         <v>0</v>
@@ -12958,13 +12936,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I77" s="1" t="b">
         <v>0</v>
@@ -12972,13 +12950,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I78" s="1" t="b">
         <v>0</v>
@@ -12986,13 +12964,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I79" s="1" t="b">
         <v>0</v>
@@ -13000,13 +12978,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I80" s="1" t="b">
         <v>0</v>
@@ -13014,13 +12992,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I81" s="1" t="b">
         <v>0</v>
@@ -13028,13 +13006,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I82" s="1" t="b">
         <v>0</v>
@@ -13042,13 +13020,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I83" s="1" t="b">
         <v>0</v>
@@ -13056,13 +13034,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I84" s="1" t="b">
         <v>0</v>
@@ -13070,13 +13048,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I85" s="1" t="b">
         <v>0</v>
@@ -13084,13 +13062,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I86" s="1" t="b">
         <v>0</v>
@@ -13098,13 +13076,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I87" s="1" t="b">
         <v>0</v>
@@ -13112,13 +13090,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I88" s="1" t="b">
         <v>0</v>
@@ -13126,13 +13104,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I89" s="1" t="b">
         <v>0</v>
@@ -13140,13 +13118,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I90" s="1" t="b">
         <v>0</v>
@@ -13154,13 +13132,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I91" s="1" t="b">
         <v>0</v>
@@ -13168,13 +13146,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I92" s="1" t="b">
         <v>0</v>
@@ -13182,13 +13160,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I93" s="1" t="b">
         <v>0</v>
@@ -13196,13 +13174,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I94" s="1" t="b">
         <v>0</v>
@@ -13210,13 +13188,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I95" s="1" t="b">
         <v>0</v>
@@ -13224,13 +13202,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I96" s="1" t="b">
         <v>0</v>
@@ -13238,13 +13216,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I97" s="1" t="b">
         <v>0</v>
@@ -13252,13 +13230,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I98" s="1" t="b">
         <v>0</v>
@@ -13266,13 +13244,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I99" s="1" t="b">
         <v>0</v>
@@ -13280,13 +13258,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I100" s="1" t="b">
         <v>0</v>
@@ -13294,13 +13272,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I101" s="1" t="b">
         <v>0</v>
@@ -13308,13 +13286,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I102" s="1" t="b">
         <v>0</v>
@@ -13322,13 +13300,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I103" s="1" t="b">
         <v>0</v>
@@ -13336,13 +13314,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I104" s="1" t="b">
         <v>0</v>
@@ -13350,13 +13328,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I105" s="1" t="b">
         <v>0</v>
@@ -13364,13 +13342,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I106" s="1" t="b">
         <v>0</v>
@@ -13378,13 +13356,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I107" s="1" t="b">
         <v>0</v>
@@ -13392,13 +13370,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I108" s="1" t="b">
         <v>0</v>
@@ -13406,13 +13384,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H109" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I109" s="1" t="b">
         <v>0</v>
@@ -13420,13 +13398,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I110" s="1" t="b">
         <v>0</v>
@@ -13434,13 +13412,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I111" s="1" t="b">
         <v>0</v>
@@ -13448,13 +13426,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I112" s="1" t="b">
         <v>0</v>
@@ -13462,13 +13440,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H113" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I113" s="1" t="b">
         <v>0</v>
@@ -13476,13 +13454,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I114" s="1" t="b">
         <v>0</v>
@@ -13490,13 +13468,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I115" s="1" t="b">
         <v>0</v>
@@ -13504,13 +13482,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I116" s="1" t="b">
         <v>0</v>
@@ -13518,13 +13496,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I117" s="1" t="b">
         <v>0</v>
@@ -13532,13 +13510,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>0</v>
@@ -13546,13 +13524,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>0</v>
@@ -13560,13 +13538,13 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I120" s="1" t="b">
         <v>0</v>
@@ -13574,13 +13552,13 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I121" s="1" t="b">
         <v>0</v>
@@ -13588,13 +13566,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H122" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I122" s="1" t="b">
         <v>0</v>
@@ -13602,13 +13580,13 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
@@ -13616,13 +13594,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I124" s="1" t="b">
         <v>0</v>
@@ -13630,13 +13608,13 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>0</v>
@@ -13644,13 +13622,13 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>0</v>
@@ -13658,13 +13636,13 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I127" s="1" t="b">
         <v>0</v>
@@ -13672,13 +13650,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I128" s="1" t="b">
         <v>0</v>
@@ -13686,13 +13664,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I129" s="1" t="b">
         <v>0</v>
@@ -13700,13 +13678,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I130" s="1" t="b">
         <v>0</v>
@@ -13714,13 +13692,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I131" s="1" t="b">
         <v>0</v>
@@ -13728,13 +13706,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H132" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I132" s="1" t="b">
         <v>0</v>
@@ -13742,13 +13720,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H133" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I133" s="1" t="b">
         <v>0</v>
@@ -13756,13 +13734,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I134" s="1" t="b">
         <v>0</v>
@@ -13770,13 +13748,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I135" s="1" t="b">
         <v>0</v>
@@ -13784,13 +13762,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I136" s="1" t="b">
         <v>0</v>
@@ -13798,13 +13776,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I137" s="1" t="b">
         <v>0</v>
@@ -13812,13 +13790,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I138" s="1" t="b">
         <v>0</v>
@@ -13826,13 +13804,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I139" s="1" t="b">
         <v>0</v>
@@ -13840,13 +13818,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I140" s="1" t="b">
         <v>0</v>
@@ -13854,13 +13832,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I141" s="1" t="b">
         <v>0</v>
@@ -13868,13 +13846,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I142" s="1" t="b">
         <v>0</v>
@@ -13882,13 +13860,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I143" s="1" t="b">
         <v>0</v>
@@ -13896,13 +13874,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I144" s="1" t="b">
         <v>0</v>
@@ -13910,13 +13888,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I145" s="1" t="b">
         <v>0</v>
@@ -13924,13 +13902,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I146" s="1" t="b">
         <v>0</v>
@@ -13938,13 +13916,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I147" s="1" t="b">
         <v>0</v>
@@ -13952,13 +13930,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H148" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I148" s="1" t="b">
         <v>0</v>
@@ -13966,13 +13944,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I149" s="1" t="b">
         <v>0</v>
@@ -13980,13 +13958,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H150" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I150" s="1" t="b">
         <v>0</v>
@@ -13994,13 +13972,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H151" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I151" s="1" t="b">
         <v>0</v>
@@ -14008,13 +13986,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I152" s="1" t="b">
         <v>0</v>
@@ -14022,13 +14000,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I153" s="1" t="b">
         <v>0</v>
@@ -14036,13 +14014,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H154" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I154" s="1" t="b">
         <v>0</v>
@@ -14050,13 +14028,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I155" s="1" t="b">
         <v>0</v>
@@ -14064,13 +14042,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I156" s="1" t="b">
         <v>0</v>
@@ -14078,13 +14056,13 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H157" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I157" s="1" t="b">
         <v>0</v>
@@ -14092,13 +14070,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I158" s="1" t="b">
         <v>0</v>
@@ -14106,13 +14084,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I159" s="1" t="b">
         <v>0</v>
@@ -14120,13 +14098,13 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I160" s="1" t="b">
         <v>0</v>
@@ -14134,13 +14112,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H161" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I161" s="1" t="b">
         <v>0</v>
@@ -14148,13 +14126,13 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I162" s="1" t="b">
         <v>0</v>
@@ -14162,13 +14140,13 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I163" s="1" t="b">
         <v>0</v>
@@ -14176,13 +14154,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I164" s="1" t="b">
         <v>0</v>
@@ -14190,13 +14168,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I165" s="1" t="b">
         <v>0</v>
@@ -14204,13 +14182,13 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H166" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I166" s="1" t="b">
         <v>0</v>
@@ -14218,13 +14196,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I167" s="1" t="b">
         <v>0</v>
@@ -14232,13 +14210,13 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I168" s="1" t="b">
         <v>0</v>
@@ -14246,13 +14224,13 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H169" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I169" s="1" t="b">
         <v>0</v>
@@ -14260,13 +14238,13 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H170" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I170" s="1" t="b">
         <v>0</v>
@@ -14274,13 +14252,13 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H171" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I171" s="1" t="b">
         <v>0</v>
@@ -14288,13 +14266,13 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H172" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I172" s="1" t="b">
         <v>0</v>
@@ -14302,13 +14280,13 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H173" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I173" s="1" t="b">
         <v>0</v>
@@ -14316,13 +14294,13 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H174" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I174" s="1" t="b">
         <v>0</v>
@@ -14330,13 +14308,13 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I175" s="1" t="b">
         <v>0</v>
@@ -14344,13 +14322,13 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I176" s="1" t="b">
         <v>0</v>
@@ -14358,13 +14336,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I177" s="1" t="b">
         <v>0</v>
@@ -14372,13 +14350,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H178" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I178" s="1" t="b">
         <v>0</v>
@@ -14386,13 +14364,13 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H179" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I179" s="1" t="b">
         <v>0</v>
@@ -14400,13 +14378,13 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H180" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I180" s="1" t="b">
         <v>0</v>
@@ -14414,13 +14392,13 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H181" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>0</v>
@@ -14428,13 +14406,13 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H182" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I182" s="1" t="b">
         <v>0</v>
@@ -14442,13 +14420,13 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H183" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I183" s="1" t="b">
         <v>0</v>
@@ -14456,13 +14434,13 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H184" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I184" s="1" t="b">
         <v>0</v>
@@ -14470,13 +14448,13 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H185" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I185" s="1" t="b">
         <v>0</v>
@@ -14484,13 +14462,13 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H186" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I186" s="1" t="b">
         <v>0</v>
@@ -14498,13 +14476,13 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H187" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I187" s="1" t="b">
         <v>0</v>
@@ -14512,13 +14490,13 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I188" s="1" t="b">
         <v>0</v>
@@ -14526,13 +14504,13 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I189" s="1" t="b">
         <v>0</v>
@@ -14540,13 +14518,13 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H190" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>0</v>
@@ -14554,13 +14532,13 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I191" s="1" t="b">
         <v>0</v>
@@ -14630,7 +14608,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -14653,7 +14631,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -14676,7 +14654,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -14699,7 +14677,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -14819,7 +14797,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -14827,7 +14805,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -14835,7 +14813,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
@@ -14843,7 +14821,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -14851,7 +14829,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
@@ -14859,7 +14837,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>88</v>
@@ -14867,7 +14845,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -14875,7 +14853,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>88</v>
@@ -14935,16 +14913,16 @@
     <row r="1" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>47</v>
@@ -14955,95 +14933,95 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -15055,7 +15033,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1">
         <v>10000</v>
@@ -15066,7 +15044,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1">
         <v>10000</v>
@@ -15077,7 +15055,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="1">
         <v>10000</v>
@@ -15088,7 +15066,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1">
         <v>10000</v>
@@ -15099,7 +15077,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1">
         <v>10000</v>
@@ -15110,7 +15088,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21" s="1">
         <v>10000</v>
@@ -15121,7 +15099,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="1">
         <v>10000</v>
@@ -15132,7 +15110,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="1">
         <v>10000</v>
@@ -15143,7 +15121,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1">
         <v>10000</v>
@@ -15154,7 +15132,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="1">
         <v>10000</v>
@@ -15165,7 +15143,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="1">
         <v>10000</v>
@@ -15185,12 +15163,12 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D28" s="1">
         <v>10000</v>
@@ -15232,28 +15210,28 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -15265,72 +15243,72 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -15353,7 +15331,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -15376,7 +15354,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -15399,7 +15377,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -15422,7 +15400,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -15445,7 +15423,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -15468,7 +15446,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -15491,7 +15469,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -15514,7 +15492,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -15537,7 +15515,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -15560,7 +15538,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -15583,17 +15561,17 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
